--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>QDJL-JB</t>
+  </si>
+  <si>
+    <t>Equip_Weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开山斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开山斧武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50004</t>
   </si>
 </sst>
 </file>
@@ -231,8 +246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K8" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K9" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K9"/>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
@@ -535,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,6 +850,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10000</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -27,51 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemSubType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolDownTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverlayCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuyPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Item_Cash_1</t>
   </si>
@@ -143,6 +99,115 @@
   </si>
   <si>
     <t>50004</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>ItemSubType</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>ShowName</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>EffectProperty</t>
+  </si>
+  <si>
+    <t>EffectValue</t>
+  </si>
+  <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>ActiveEffectData</t>
+  </si>
+  <si>
+    <t>ActiveEffectDataPercent</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>GetItemList</t>
+  </si>
+  <si>
+    <t>GetBuffList</t>
+  </si>
+  <si>
+    <t>GetSkill</t>
+  </si>
+  <si>
+    <t>CoolDownTime</t>
+  </si>
+  <si>
+    <t>OverlayCount</t>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+  </si>
+  <si>
+    <t>PerformanceEffect</t>
+  </si>
+  <si>
+    <t>PerformanceSound</t>
+  </si>
+  <si>
+    <t>ExpiredType</t>
+  </si>
+  <si>
+    <t>BuyPrice</t>
+  </si>
+  <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Prefabs/Item/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/2</t>
+  </si>
+  <si>
+    <t>Prefabs/Item/3</t>
+  </si>
+  <si>
+    <t>Prefabs/Item/4</t>
+  </si>
+  <si>
+    <t>Prefabs/Item/5</t>
+  </si>
+  <si>
+    <t>Prefabs/Item/6</t>
+  </si>
+  <si>
+    <t>Prefabs/Item/7</t>
   </si>
 </sst>
 </file>
@@ -246,10 +311,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K9"/>
-  <tableColumns count="11">
-    <tableColumn id="1" uniqueName="ID" name="ID">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:AC9" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:AC9"/>
+  <tableColumns count="29">
+    <tableColumn id="1" uniqueName="ID" name="Id">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="ItemType" name="ItemType">
@@ -261,27 +326,45 @@
     <tableColumn id="4" uniqueName="Level" name="Level">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="ShowName" name="ShowName">
+    <tableColumn id="5" uniqueName="ShowName" name="Job">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ShowName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Desc" name="Desc">
+    <tableColumn id="6" uniqueName="Desc" name="Quality">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Desc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Icon" name="Icon">
+    <tableColumn id="7" uniqueName="Icon" name="Bound">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="CoolDownTime" name="CoolDownTime">
+    <tableColumn id="8" uniqueName="CoolDownTime" name="ShowName">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@CoolDownTime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="OverlayCount" name="OverlayCount">
+    <tableColumn id="9" uniqueName="OverlayCount" name="Desc">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@OverlayCount" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="BuyPrice" name="BuyPrice">
+    <tableColumn id="10" uniqueName="BuyPrice" name="EffectProperty">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@BuyPrice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="SalePrice" name="SalePrice">
+    <tableColumn id="11" uniqueName="SalePrice" name="EffectValue">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@SalePrice" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="12" uniqueName="12" name="EffectData"/>
+    <tableColumn id="13" uniqueName="13" name="ActiveEffectData"/>
+    <tableColumn id="14" uniqueName="14" name="ActiveEffectDataPercent"/>
+    <tableColumn id="15" uniqueName="15" name="Icon"/>
+    <tableColumn id="16" uniqueName="16" name="Atlas"/>
+    <tableColumn id="17" uniqueName="17" name="GetItemList"/>
+    <tableColumn id="18" uniqueName="18" name="GetBuffList"/>
+    <tableColumn id="19" uniqueName="19" name="GetSkill"/>
+    <tableColumn id="20" uniqueName="20" name="CoolDownTime"/>
+    <tableColumn id="21" uniqueName="21" name="OverlayCount"/>
+    <tableColumn id="22" uniqueName="22" name="PrefabPath"/>
+    <tableColumn id="23" uniqueName="23" name="PerformanceEffect"/>
+    <tableColumn id="24" uniqueName="24" name="PerformanceSound"/>
+    <tableColumn id="25" uniqueName="25" name="ExpiredType"/>
+    <tableColumn id="26" uniqueName="26" name="BuyPrice"/>
+    <tableColumn id="27" uniqueName="27" name="SalePrice"/>
+    <tableColumn id="28" uniqueName="28" name="Script"/>
+    <tableColumn id="29" uniqueName="29" name="Duration"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,50 +647,120 @@
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -619,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -639,10 +792,13 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -654,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -674,10 +830,13 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="V3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -689,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -709,10 +868,13 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="V4" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -724,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -744,10 +906,13 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="V5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -759,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -779,10 +944,13 @@
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -794,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -814,10 +982,13 @@
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="V7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -829,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -849,10 +1020,13 @@
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -864,13 +1038,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -27,122 +27,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+  <si>
+    <t>钱盒子</t>
+  </si>
+  <si>
+    <t>生命药水</t>
+  </si>
+  <si>
+    <t>蓝药</t>
+  </si>
+  <si>
+    <t>经验药</t>
+  </si>
+  <si>
+    <t>新手大礼包</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>活动令牌</t>
+  </si>
+  <si>
+    <t>装了好多钱</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>QDJL-JB</t>
+  </si>
+  <si>
+    <t>开山斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开山斧武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50004</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ItemSubType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Bound</t>
   </si>
   <si>
     <t>ShowName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectProperty</t>
+  </si>
+  <si>
+    <t>EffectValue</t>
+  </si>
+  <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>ActiveEffectData</t>
+  </si>
+  <si>
+    <t>ActiveEffectDataPercent</t>
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>GetItemList</t>
+  </si>
+  <si>
+    <t>GetBuffList</t>
+  </si>
+  <si>
+    <t>GetSkill</t>
   </si>
   <si>
     <t>CoolDownTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OverlayCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+  </si>
+  <si>
+    <t>PerformanceEffect</t>
+  </si>
+  <si>
+    <t>PerformanceSound</t>
+  </si>
+  <si>
+    <t>ExpiredType</t>
   </si>
   <si>
     <t>BuyPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SalePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
   <si>
     <t>Item_Cash_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Item_Cash_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Item_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Item_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Item_MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Item_MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Item_EXP</t>
-  </si>
-  <si>
-    <t>Item_ZS_SKILL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Item_EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_New_Award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Item_New_Award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gold_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Gold_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Active_Token</t>
-  </si>
-  <si>
-    <t>钱盒子</t>
-  </si>
-  <si>
-    <t>生命药水</t>
-  </si>
-  <si>
-    <t>蓝药</t>
-  </si>
-  <si>
-    <t>经验药</t>
-  </si>
-  <si>
-    <t>新手大礼包</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>活动令牌</t>
-  </si>
-  <si>
-    <t>装了好多钱</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>QDJL-JB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Active_Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Equip_Weapon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开山斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开山斧武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50004</t>
+    <t>Prefabs/Item/Equip_Weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -199,7 +281,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -246,10 +335,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K9"/>
-  <tableColumns count="11">
-    <tableColumn id="1" uniqueName="ID" name="ID">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:AC9" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:AC9"/>
+  <tableColumns count="29">
+    <tableColumn id="1" uniqueName="ID" name="Id">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="ItemType" name="ItemType">
@@ -261,27 +350,45 @@
     <tableColumn id="4" uniqueName="Level" name="Level">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="ShowName" name="ShowName">
+    <tableColumn id="5" uniqueName="ShowName" name="Job">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ShowName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Desc" name="Desc">
+    <tableColumn id="6" uniqueName="Desc" name="Quality">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Desc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Icon" name="Icon">
+    <tableColumn id="7" uniqueName="Icon" name="Bound">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="CoolDownTime" name="CoolDownTime">
+    <tableColumn id="8" uniqueName="CoolDownTime" name="ShowName" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@CoolDownTime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="OverlayCount" name="OverlayCount">
+    <tableColumn id="9" uniqueName="OverlayCount" name="Desc" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@OverlayCount" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="BuyPrice" name="BuyPrice">
+    <tableColumn id="10" uniqueName="BuyPrice" name="EffectProperty">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@BuyPrice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="SalePrice" name="SalePrice">
+    <tableColumn id="11" uniqueName="SalePrice" name="EffectValue">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@SalePrice" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="12" uniqueName="12" name="EffectData"/>
+    <tableColumn id="13" uniqueName="13" name="ActiveEffectData"/>
+    <tableColumn id="14" uniqueName="14" name="ActiveEffectDataPercent"/>
+    <tableColumn id="15" uniqueName="15" name="Icon"/>
+    <tableColumn id="16" uniqueName="16" name="Atlas"/>
+    <tableColumn id="17" uniqueName="17" name="GetItemList"/>
+    <tableColumn id="18" uniqueName="18" name="GetBuffList"/>
+    <tableColumn id="19" uniqueName="19" name="GetSkill"/>
+    <tableColumn id="20" uniqueName="20" name="CoolDownTime"/>
+    <tableColumn id="21" uniqueName="21" name="OverlayCount"/>
+    <tableColumn id="22" uniqueName="22" name="PrefabPath"/>
+    <tableColumn id="23" uniqueName="23" name="PerformanceEffect"/>
+    <tableColumn id="24" uniqueName="24" name="PerformanceSound"/>
+    <tableColumn id="25" uniqueName="25" name="ExpiredType"/>
+    <tableColumn id="26" uniqueName="26" name="BuyPrice"/>
+    <tableColumn id="27" uniqueName="27" name="SalePrice"/>
+    <tableColumn id="28" uniqueName="28" name="Script"/>
+    <tableColumn id="29" uniqueName="29" name="Duration"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,50 +671,120 @@
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -618,20 +795,20 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -639,10 +816,13 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -653,19 +833,19 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J3">
@@ -674,10 +854,13 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -688,20 +871,20 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -709,10 +892,13 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -723,20 +909,20 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -744,10 +930,13 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -758,20 +947,20 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -779,10 +968,13 @@
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="V6" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -793,20 +985,20 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -814,10 +1006,13 @@
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -828,68 +1023,75 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>10000</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>10000</v>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
         <v>100</v>
+      </c>
+      <c r="V9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -76,9 +76,6 @@
     <t>50004</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>ItemType</t>
   </si>
   <si>
@@ -224,6 +221,10 @@
   </si>
   <si>
     <t>Prefabs/Item/Equip_Weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +339,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:AC9" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:AC9"/>
   <tableColumns count="29">
-    <tableColumn id="1" uniqueName="ID" name="Id">
+    <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="ItemType" name="ItemType">
@@ -659,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,96 +696,96 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>42</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -817,12 +818,12 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -855,12 +856,12 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -893,12 +894,12 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -931,12 +932,12 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -969,12 +970,12 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1007,12 +1008,12 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1045,12 +1046,12 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1083,7 +1084,7 @@
         <v>100</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,8 +817,26 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>999</v>
+      </c>
       <c r="V2" t="s">
         <v>44</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>100</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
@@ -855,8 +873,26 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>999</v>
+      </c>
       <c r="V3" t="s">
         <v>46</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3">
+        <v>100</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
@@ -893,8 +929,26 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>999</v>
+      </c>
       <c r="V4" t="s">
         <v>48</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
+      <c r="AA4">
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
@@ -931,8 +985,26 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>999</v>
+      </c>
       <c r="V5" t="s">
         <v>50</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
@@ -969,8 +1041,26 @@
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
       <c r="V6" t="s">
         <v>52</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
+      <c r="AA6">
+        <v>100</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
@@ -1007,8 +1097,26 @@
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>999</v>
+      </c>
       <c r="V7" t="s">
         <v>54</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+      <c r="AA7">
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
@@ -1045,8 +1153,26 @@
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>999</v>
+      </c>
       <c r="V8" t="s">
         <v>56</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
@@ -1083,8 +1209,26 @@
       <c r="K9">
         <v>100</v>
       </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>999</v>
+      </c>
       <c r="V9" t="s">
         <v>58</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>100</v>
+      </c>
+      <c r="AA9">
+        <v>100</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>钱盒子</t>
   </si>
@@ -50,32 +50,10 @@
     <t>活动令牌</t>
   </si>
   <si>
-    <t>装了好多钱</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>QDJL-JB</t>
-  </si>
-  <si>
     <t>开山斧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开山斧武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50004</t>
-  </si>
-  <si>
     <t>ItemType</t>
   </si>
   <si>
@@ -91,60 +69,15 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>ShowName</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>EffectProperty</t>
-  </si>
-  <si>
-    <t>EffectValue</t>
-  </si>
-  <si>
     <t>EffectData</t>
   </si>
   <si>
-    <t>ActiveEffectData</t>
-  </si>
-  <si>
-    <t>ActiveEffectDataPercent</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Atlas</t>
-  </si>
-  <si>
-    <t>GetItemList</t>
-  </si>
-  <si>
-    <t>GetBuffList</t>
-  </si>
-  <si>
-    <t>GetSkill</t>
-  </si>
-  <si>
     <t>CoolDownTime</t>
   </si>
   <si>
     <t>OverlayCount</t>
   </si>
   <si>
-    <t>PrefabPath</t>
-  </si>
-  <si>
-    <t>PerformanceEffect</t>
-  </si>
-  <si>
-    <t>PerformanceSound</t>
-  </si>
-  <si>
     <t>ExpiredType</t>
   </si>
   <si>
@@ -157,74 +90,59 @@
     <t>Script</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Item_Cash_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Item_Cash_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Item_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_MP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Item_MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_EXP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Item_EXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_New_Award</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Item_New_Award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Gold_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Active_Token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Active_Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equip_Weapon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/Equip_Weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumeData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,9 +254,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:AC9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:AC9"/>
-  <tableColumns count="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:R9" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:R9"/>
+  <tableColumns count="18">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -357,39 +275,22 @@
     <tableColumn id="6" uniqueName="Desc" name="Quality">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Desc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Icon" name="Bound">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Icon" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="CoolDownTime" name="ShowName" dataDxfId="1">
+    <tableColumn id="8" uniqueName="CoolDownTime" name="DesignDesc" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@CoolDownTime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="OverlayCount" name="Desc" dataDxfId="0">
+    <tableColumn id="9" uniqueName="OverlayCount" name="DescID" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@OverlayCount" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="BuyPrice" name="EffectProperty">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@BuyPrice" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="SalePrice" name="EffectValue">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@SalePrice" xmlDataType="integer"/>
-    </tableColumn>
     <tableColumn id="12" uniqueName="12" name="EffectData"/>
-    <tableColumn id="13" uniqueName="13" name="ActiveEffectData"/>
-    <tableColumn id="14" uniqueName="14" name="ActiveEffectDataPercent"/>
-    <tableColumn id="15" uniqueName="15" name="Icon"/>
-    <tableColumn id="16" uniqueName="16" name="Atlas"/>
-    <tableColumn id="17" uniqueName="17" name="GetItemList"/>
-    <tableColumn id="18" uniqueName="18" name="GetBuffList"/>
-    <tableColumn id="19" uniqueName="19" name="GetSkill"/>
+    <tableColumn id="13" uniqueName="13" name="ConsumeData"/>
+    <tableColumn id="14" uniqueName="14" name="AwardData"/>
     <tableColumn id="20" uniqueName="20" name="CoolDownTime"/>
     <tableColumn id="21" uniqueName="21" name="OverlayCount"/>
-    <tableColumn id="22" uniqueName="22" name="PrefabPath"/>
-    <tableColumn id="23" uniqueName="23" name="PerformanceEffect"/>
-    <tableColumn id="24" uniqueName="24" name="PerformanceSound"/>
     <tableColumn id="25" uniqueName="25" name="ExpiredType"/>
     <tableColumn id="26" uniqueName="26" name="BuyPrice"/>
     <tableColumn id="27" uniqueName="27" name="SalePrice"/>
     <tableColumn id="28" uniqueName="28" name="Script"/>
-    <tableColumn id="29" uniqueName="29" name="Duration"/>
+    <tableColumn id="29" uniqueName="29" name="Extend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -672,120 +573,78 @@
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -803,45 +662,31 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>999</v>
       </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>100</v>
-      </c>
-      <c r="AA2">
-        <v>100</v>
-      </c>
-      <c r="AC2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -859,45 +704,31 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>999</v>
       </c>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>100</v>
-      </c>
-      <c r="AA3">
-        <v>100</v>
-      </c>
-      <c r="AC3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="R3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -915,45 +746,31 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
+      <c r="H4" s="1"/>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>999</v>
       </c>
-      <c r="V4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>100</v>
-      </c>
-      <c r="AA4">
-        <v>100</v>
-      </c>
-      <c r="AC4">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -971,45 +788,31 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
+      <c r="H5" s="1"/>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>999</v>
       </c>
-      <c r="V5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>100</v>
-      </c>
-      <c r="AA5">
-        <v>100</v>
-      </c>
-      <c r="AC5">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1027,45 +830,31 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
+      <c r="H6" s="1"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>999</v>
       </c>
-      <c r="V6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>100</v>
-      </c>
-      <c r="AA6">
-        <v>100</v>
-      </c>
-      <c r="AC6">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1083,45 +872,31 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
+      <c r="H7" s="1"/>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>999</v>
       </c>
-      <c r="V7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>100</v>
-      </c>
-      <c r="AA7">
-        <v>100</v>
-      </c>
-      <c r="AC7">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1139,45 +914,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
+      <c r="H8" s="1"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>999</v>
       </c>
-      <c r="V8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>100</v>
-      </c>
-      <c r="AA8">
-        <v>100</v>
-      </c>
-      <c r="AC8">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1194,40 +955,25 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>999</v>
       </c>
-      <c r="V9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>100</v>
-      </c>
-      <c r="AA9">
-        <v>100</v>
-      </c>
-      <c r="AC9">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>钱盒子</t>
   </si>
@@ -50,10 +45,6 @@
     <t>活动令牌</t>
   </si>
   <si>
-    <t>开山斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemType</t>
   </si>
   <si>
@@ -69,80 +60,185 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>CoolDownTime</t>
+  </si>
+  <si>
+    <t>OverlayCount</t>
+  </si>
+  <si>
+    <t>ExpiredType</t>
+  </si>
+  <si>
+    <t>BuyPrice</t>
+  </si>
+  <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Item_Cash_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_New_Award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active_Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumeData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem_Maxhp_10001</t>
+  </si>
+  <si>
+    <t>Gem_Maxmp_10001</t>
+  </si>
+  <si>
+    <t>Gem_Maxsp_10001</t>
+  </si>
+  <si>
+    <t>Gem_HpRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_SPRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_MPRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_Atk_Value_10001</t>
+  </si>
+  <si>
+    <t>Gem_Def_Value_10001</t>
+  </si>
+  <si>
+    <t>Gem_Move_Speed_10001</t>
+  </si>
+  <si>
+    <t>Gem_Atk_Speed_10001</t>
+  </si>
+  <si>
+    <t>生命宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力恢复宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回蓝宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EffectData</t>
-  </si>
-  <si>
-    <t>CoolDownTime</t>
-  </si>
-  <si>
-    <t>OverlayCount</t>
-  </si>
-  <si>
-    <t>ExpiredType</t>
-  </si>
-  <si>
-    <t>BuyPrice</t>
-  </si>
-  <si>
-    <t>SalePrice</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
-    <t>Item_Cash_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_EXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_New_Award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active_Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DescID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConsumeData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwardData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem_Att_Maxhp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Maxmp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Maxsp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_HpRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_SPRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_MPRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Atk_Value_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Def_Value_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Move_Speed_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Atk_Speed_101</t>
+  </si>
+  <si>
+    <t>装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipIntensify_10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:R9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:R19" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:R19"/>
   <tableColumns count="18">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
@@ -339,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,15 +655,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
@@ -575,7 +674,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
     <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.75" bestFit="1" customWidth="1"/>
@@ -588,63 +687,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -686,7 +785,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -728,7 +827,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -770,7 +869,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -812,7 +911,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -854,7 +953,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -894,9 +993,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -908,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -936,12 +1035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -950,30 +1049,477 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>999</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>100</v>
-      </c>
-      <c r="P9">
-        <v>100</v>
-      </c>
-      <c r="R9">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>999</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>999</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>999</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>999</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>999</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>999</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="R19">
         <v>0</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12372" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>钱盒子</t>
   </si>
@@ -36,9 +36,6 @@
     <t>经验药</t>
   </si>
   <si>
-    <t>新手大礼包</t>
-  </si>
-  <si>
     <t>金币</t>
   </si>
   <si>
@@ -94,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_New_Award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,135 +111,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem_Maxhp_10001</t>
+  </si>
+  <si>
+    <t>Gem_Maxmp_10001</t>
+  </si>
+  <si>
+    <t>Gem_Maxsp_10001</t>
+  </si>
+  <si>
+    <t>Gem_HpRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_SPRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_MPRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_Atk_Value_10001</t>
+  </si>
+  <si>
+    <t>Gem_Def_Value_10001</t>
+  </si>
+  <si>
+    <t>Gem_Move_Speed_10001</t>
+  </si>
+  <si>
+    <t>Gem_Atk_Speed_10001</t>
+  </si>
+  <si>
+    <t>生命宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力恢复宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回蓝宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem_Att_Maxhp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Maxmp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Maxsp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_HpRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_SPRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_MPRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Atk_Value_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Def_Value_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Move_Speed_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Atk_Speed_101</t>
+  </si>
+  <si>
+    <t>装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipIntensify_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AwardData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem_Maxhp_10001</t>
-  </si>
-  <si>
-    <t>Gem_Maxmp_10001</t>
-  </si>
-  <si>
-    <t>Gem_Maxsp_10001</t>
-  </si>
-  <si>
-    <t>Gem_HpRegen_10001</t>
-  </si>
-  <si>
-    <t>Gem_SPRegen_10001</t>
-  </si>
-  <si>
-    <t>Gem_MPRegen_10001</t>
-  </si>
-  <si>
-    <t>Gem_Atk_Value_10001</t>
-  </si>
-  <si>
-    <t>Gem_Def_Value_10001</t>
-  </si>
-  <si>
-    <t>Gem_Move_Speed_10001</t>
-  </si>
-  <si>
-    <t>Gem_Atk_Speed_10001</t>
-  </si>
-  <si>
-    <t>生命宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命恢复宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力恢复宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回蓝宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem_Att_Maxhp_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_Maxmp_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_Maxsp_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_HpRegen_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_SPRegen_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_MPRegen_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_Atk_Value_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_Def_Value_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_Move_Speed_101</t>
-  </si>
-  <si>
-    <t>Gem_Att_Atk_Speed_101</t>
-  </si>
-  <si>
-    <t>装备强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipIntensify_10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AwardProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_HP_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_EXP_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_MP_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,21 +279,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -285,11 +325,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -350,9 +393,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:R19" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:R19"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:S18" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:S18"/>
+  <tableColumns count="19">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -380,6 +423,7 @@
     <tableColumn id="12" uniqueName="12" name="EffectData"/>
     <tableColumn id="13" uniqueName="13" name="ConsumeData"/>
     <tableColumn id="14" uniqueName="14" name="AwardData"/>
+    <tableColumn id="7" uniqueName="7" name="AwardProperty"/>
     <tableColumn id="20" uniqueName="20" name="CoolDownTime"/>
     <tableColumn id="21" uniqueName="21" name="OverlayCount"/>
     <tableColumn id="25" uniqueName="25" name="ExpiredType"/>
@@ -647,7 +691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,95 +699,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.44140625" customWidth="1"/>
+    <col min="13" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -764,28 +812,31 @@
         <v>0</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="L2">
-        <v>1</v>
+      <c r="L2" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -806,28 +857,31 @@
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="L3">
-        <v>1</v>
+      <c r="L3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="M3">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -848,28 +902,31 @@
         <v>2</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="L4">
-        <v>1</v>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M4">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -890,34 +947,37 @@
         <v>3</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="L5">
-        <v>1</v>
+      <c r="L5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -932,40 +992,43 @@
         <v>4</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="L6">
-        <v>1</v>
+      <c r="L6" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="M6">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>100</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -974,37 +1037,37 @@
         <v>5</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>100</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1012,32 +1075,34 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="L8">
-        <v>1</v>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>100</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>31</v>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1055,33 +1120,34 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>100</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1099,34 +1165,33 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>40</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>100</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>33</v>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1144,33 +1209,34 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>100</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1188,34 +1254,33 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>42</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>100</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>35</v>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1233,33 +1298,34 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="M13">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>100</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -1277,34 +1343,33 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>44</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M14">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>100</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>37</v>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -1322,33 +1387,34 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>100</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -1366,34 +1432,33 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>46</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>100</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>39</v>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -1411,115 +1476,71 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>999</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>999</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>100</v>
-      </c>
-      <c r="P17">
-        <v>100</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="M18">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>100</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>999</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>100</v>
-      </c>
-      <c r="P19">
-        <v>100</v>
-      </c>
-      <c r="R19">
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12372" windowHeight="7908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
   <si>
     <t>钱盒子</t>
   </si>
@@ -257,6 +265,229 @@
   <si>
     <t>AwardProperty_Gold_10001</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroCard_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroExp_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_HeroExp_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroCard_10002</t>
+  </si>
+  <si>
+    <t>HeroCard_10003</t>
+  </si>
+  <si>
+    <t>HeroCard_10004</t>
+  </si>
+  <si>
+    <t>HeroCard_10005</t>
+  </si>
+  <si>
+    <t>HeroCard_10006</t>
+  </si>
+  <si>
+    <t>HeroExp_10002</t>
+  </si>
+  <si>
+    <t>AwardProperty_HeroExp_10002</t>
+  </si>
+  <si>
+    <t>HeroExp_10003</t>
+  </si>
+  <si>
+    <t>AwardProperty_HeroExp_10003</t>
+  </si>
+  <si>
+    <t>HeroExp_10004</t>
+  </si>
+  <si>
+    <t>AwardProperty_HeroExp_10004</t>
+  </si>
+  <si>
+    <t>HeroExp_10005</t>
+  </si>
+  <si>
+    <t>AwardProperty_HeroExp_10005</t>
+  </si>
+  <si>
+    <t>HeroExp_10006</t>
+  </si>
+  <si>
+    <t>AwardProperty_HeroExp_10006</t>
+  </si>
+  <si>
+    <t>AwardPack_Hero_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardPack_Hero_1002</t>
+  </si>
+  <si>
+    <t>AwardPack_Hero_1003</t>
+  </si>
+  <si>
+    <t>AwardPack_Hero_1004</t>
+  </si>
+  <si>
+    <t>AwardPack_Hero_1005</t>
+  </si>
+  <si>
+    <t>AwardPack_Hero_1006</t>
+  </si>
+  <si>
+    <t>Gold_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_10003</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10002</t>
+  </si>
+  <si>
+    <t>Gold_10004</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10003</t>
+  </si>
+  <si>
+    <t>Gold_10005</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10004</t>
+  </si>
+  <si>
+    <t>Gold_10006</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10005</t>
+  </si>
+  <si>
+    <t>AwardProperty_Gold_10006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond_2</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10002</t>
+  </si>
+  <si>
+    <t>Diamond_3</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10003</t>
+  </si>
+  <si>
+    <t>Diamond_4</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10004</t>
+  </si>
+  <si>
+    <t>Diamond_5</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10005</t>
+  </si>
+  <si>
+    <t>Diamond_6</t>
+  </si>
+  <si>
+    <t>AwardProperty_Money_10006</t>
+  </si>
+  <si>
+    <t>SP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP_2</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10002</t>
+  </si>
+  <si>
+    <t>SP_3</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10003</t>
+  </si>
+  <si>
+    <t>SP_4</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10004</t>
+  </si>
+  <si>
+    <t>SP_5</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10005</t>
+  </si>
+  <si>
+    <t>SP_6</t>
+  </si>
+  <si>
+    <t>AwardProperty_SP_10006</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip.png</t>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/icon_Coin.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/Icon_Gold_few.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/Icon_Gold_middle.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/Icon_Gold_lot.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -339,15 +570,42 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -393,8 +651,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:S18" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:S18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:S24" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:S24"/>
   <tableColumns count="19">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
@@ -691,7 +949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,38 +957,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" customWidth="1"/>
-    <col min="13" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5" customWidth="1"/>
+    <col min="13" max="14" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -788,16 +1047,19 @@
       <c r="S1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -833,8 +1095,11 @@
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -842,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -878,8 +1143,11 @@
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -887,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -923,8 +1191,11 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -932,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -968,16 +1239,19 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1013,8 +1287,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1055,8 +1332,11 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1064,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1099,8 +1379,11 @@
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1144,8 +1427,11 @@
       <c r="S9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1153,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1188,8 +1474,11 @@
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1197,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1233,8 +1522,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1277,8 +1569,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1286,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1322,8 +1617,11 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1331,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1366,8 +1664,11 @@
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1411,8 +1712,11 @@
       <c r="S15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1420,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1455,8 +1759,11 @@
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1464,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1500,8 +1807,11 @@
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1542,6 +1852,1419 @@
       </c>
       <c r="S18">
         <v>0</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>999</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>999</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>999</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>999</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>999</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>999</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>999</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>999</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26">
+        <v>100</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>999</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>100</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>999</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>999</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>999</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="L31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>999</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="L32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>999</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="L33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>999</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="Q33">
+        <v>100</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="L34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>999</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <v>100</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="L35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>999</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>100</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="L36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>999</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>100</v>
+      </c>
+      <c r="Q36">
+        <v>100</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="L37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>999</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>100</v>
+      </c>
+      <c r="Q37">
+        <v>100</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="L38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>999</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>100</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="L39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>999</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>100</v>
+      </c>
+      <c r="Q39">
+        <v>100</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="L40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>999</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>100</v>
+      </c>
+      <c r="Q40">
+        <v>100</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="L41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>999</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>100</v>
+      </c>
+      <c r="Q41">
+        <v>100</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="L42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>999</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42">
+        <v>100</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="L43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>999</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>100</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="L44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>999</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>100</v>
+      </c>
+      <c r="Q44">
+        <v>100</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="L45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>999</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <v>100</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="L46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>999</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="L47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>999</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>100</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="187">
   <si>
     <t>钱盒子</t>
   </si>
@@ -471,23 +471,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI/SteampunkUI/resource/icons/img_equip.png</t>
-  </si>
-  <si>
-    <t>UI/SteampunkUI/resource/icons/icon_Coin.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/SteampunkUI/resource/icons/Icon_Gold_few.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/SteampunkUI/resource/icons/Icon_Gold_middle.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/SteampunkUI/resource/icons/Icon_Gold_lot.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>UI/SteampunkUI/resource/icons/img_equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName_2</t>
+  </si>
+  <si>
+    <t>ShowName_3</t>
+  </si>
+  <si>
+    <t>ShowName_4</t>
+  </si>
+  <si>
+    <t>ShowName_5</t>
+  </si>
+  <si>
+    <t>ShowName_6</t>
+  </si>
+  <si>
+    <t>ShowName_7</t>
+  </si>
+  <si>
+    <t>ShowName_8</t>
+  </si>
+  <si>
+    <t>ShowName_9</t>
+  </si>
+  <si>
+    <t>ShowName_10</t>
+  </si>
+  <si>
+    <t>ShowName_11</t>
+  </si>
+  <si>
+    <t>ShowName_12</t>
+  </si>
+  <si>
+    <t>ShowName_13</t>
+  </si>
+  <si>
+    <t>ShowName_14</t>
+  </si>
+  <si>
+    <t>ShowName_15</t>
+  </si>
+  <si>
+    <t>ShowName_16</t>
+  </si>
+  <si>
+    <t>ShowName_17</t>
+  </si>
+  <si>
+    <t>ShowName_18</t>
+  </si>
+  <si>
+    <t>ShowName_19</t>
+  </si>
+  <si>
+    <t>ShowName_20</t>
+  </si>
+  <si>
+    <t>ShowName_21</t>
+  </si>
+  <si>
+    <t>ShowName_22</t>
+  </si>
+  <si>
+    <t>ShowName_23</t>
+  </si>
+  <si>
+    <t>ShowName_24</t>
+  </si>
+  <si>
+    <t>ShowName_25</t>
+  </si>
+  <si>
+    <t>ShowName_26</t>
+  </si>
+  <si>
+    <t>ShowName_27</t>
+  </si>
+  <si>
+    <t>ShowName_28</t>
+  </si>
+  <si>
+    <t>ShowName_29</t>
+  </si>
+  <si>
+    <t>ShowName_30</t>
+  </si>
+  <si>
+    <t>ShowName_31</t>
+  </si>
+  <si>
+    <t>ShowName_32</t>
+  </si>
+  <si>
+    <t>ShowName_33</t>
+  </si>
+  <si>
+    <t>ShowName_34</t>
+  </si>
+  <si>
+    <t>ShowName_35</t>
+  </si>
+  <si>
+    <t>ShowName_36</t>
+  </si>
+  <si>
+    <t>ShowName_37</t>
+  </si>
+  <si>
+    <t>ShowName_38</t>
+  </si>
+  <si>
+    <t>ShowName_39</t>
+  </si>
+  <si>
+    <t>ShowName_40</t>
+  </si>
+  <si>
+    <t>ShowName_41</t>
+  </si>
+  <si>
+    <t>ShowName_42</t>
+  </si>
+  <si>
+    <t>ShowName_43</t>
+  </si>
+  <si>
+    <t>ShowName_44</t>
+  </si>
+  <si>
+    <t>ShowName_45</t>
+  </si>
+  <si>
+    <t>ShowName_46</t>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/icon_Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip</t>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/Icon_Gold_few</t>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/Icon_Gold_middle</t>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/Icon_Gold_lot</t>
   </si>
 </sst>
 </file>
@@ -957,13 +1113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T43" sqref="T43"/>
+      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -989,7 +1145,7 @@
     <col min="20" max="20" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1050,8 +1206,11 @@
       <c r="T1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,8 +1257,11 @@
       <c r="T2" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1146,8 +1308,11 @@
       <c r="T3" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,8 +1359,11 @@
       <c r="T4" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1242,8 +1410,11 @@
       <c r="T5" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1288,10 +1459,13 @@
         <v>0</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="U6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1333,10 +1507,13 @@
         <v>0</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="U7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1380,10 +1557,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+      <c r="U8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1428,10 +1608,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="U9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1475,10 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="U10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1523,10 +1709,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="U11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1570,10 +1759,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,10 +1810,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1665,10 +1860,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,10 +1911,13 @@
         <v>0</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1760,10 +1961,13 @@
         <v>0</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1808,10 +2012,13 @@
         <v>0</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1854,10 +2061,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -1903,10 +2113,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1952,10 +2165,13 @@
         <v>0</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -2001,10 +2217,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -2050,10 +2269,13 @@
         <v>0</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2099,10 +2321,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2148,10 +2373,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2198,10 +2426,13 @@
         <v>0</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2248,10 +2479,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2298,10 +2532,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -2348,10 +2585,13 @@
         <v>0</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2398,10 +2638,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -2448,10 +2691,13 @@
         <v>0</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -2496,10 +2742,13 @@
         <v>0</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="U31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -2544,10 +2793,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="U32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -2592,10 +2844,13 @@
         <v>0</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+      <c r="U33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -2640,10 +2895,13 @@
         <v>0</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -2688,10 +2946,13 @@
         <v>0</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
@@ -2736,10 +2997,13 @@
         <v>0</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -2784,10 +3048,13 @@
         <v>0</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -2832,10 +3099,13 @@
         <v>0</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -2880,10 +3150,13 @@
         <v>0</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -2928,10 +3201,13 @@
         <v>0</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -2976,10 +3252,13 @@
         <v>0</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -3024,10 +3303,13 @@
         <v>0</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3072,10 +3354,13 @@
         <v>0</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
@@ -3120,10 +3405,13 @@
         <v>0</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
@@ -3168,10 +3456,13 @@
         <v>0</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>126</v>
       </c>
@@ -3216,10 +3507,13 @@
         <v>0</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="U46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>128</v>
       </c>
@@ -3264,7 +3558,10 @@
         <v>0</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>131</v>
+        <v>181</v>
+      </c>
+      <c r="U47" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -659,13 +659,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -680,6 +696,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -687,8 +748,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,25 +803,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -734,76 +819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,7 +860,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,13 +932,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,43 +974,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,113 +1040,116 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1045,56 +1160,6 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,7 +1183,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,165 +1266,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1506,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1656,7 +1795,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1681,144 +1820,144 @@
     <col min="21" max="21" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:22">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:22">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1886,7 +2025,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:22">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1954,7 +2093,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -2022,7 +2161,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -2089,76 +2228,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:22">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" ht="95.25" spans="1:22">
+      <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B8">
@@ -2176,10 +2315,10 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="11" t="s">
         <v>54</v>
       </c>
       <c r="M8">
@@ -2200,7 +2339,7 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="11" t="s">
         <v>55</v>
       </c>
       <c r="U8" t="s">
@@ -2211,7 +2350,7 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B9">
@@ -2229,10 +2368,10 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="10" t="s">
         <v>59</v>
       </c>
       <c r="M9">
@@ -2253,7 +2392,7 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U9" t="s">
@@ -2264,7 +2403,7 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B10">
@@ -2282,10 +2421,10 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="10" t="s">
         <v>63</v>
       </c>
       <c r="M10">
@@ -2306,7 +2445,7 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U10" t="s">
@@ -2317,7 +2456,7 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B11">
@@ -2335,10 +2474,10 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M11">
@@ -2359,7 +2498,7 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U11" t="s">
@@ -2370,7 +2509,7 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B12">
@@ -2388,7 +2527,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>70</v>
       </c>
       <c r="M12">
@@ -2409,7 +2548,7 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U12" t="s">
@@ -2441,7 +2580,7 @@
       <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="10" t="s">
         <v>74</v>
       </c>
       <c r="M13">
@@ -2462,7 +2601,7 @@
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U13" t="s">
@@ -2473,7 +2612,7 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B14">
@@ -2494,7 +2633,7 @@
       <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="10" t="s">
         <v>78</v>
       </c>
       <c r="M14">
@@ -2515,7 +2654,7 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U14" t="s">
@@ -2547,7 +2686,7 @@
       <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="10" t="s">
         <v>82</v>
       </c>
       <c r="M15">
@@ -2568,7 +2707,7 @@
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U15" t="s">
@@ -2579,7 +2718,7 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B16">
@@ -2600,7 +2739,7 @@
       <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="10" t="s">
         <v>86</v>
       </c>
       <c r="M16">
@@ -2621,7 +2760,7 @@
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U16" t="s">
@@ -2653,7 +2792,7 @@
       <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="10" t="s">
         <v>90</v>
       </c>
       <c r="M17">
@@ -2674,7 +2813,7 @@
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U17" t="s">
@@ -2685,7 +2824,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B18">
@@ -2706,7 +2845,7 @@
       <c r="G18" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="M18">
@@ -2727,7 +2866,7 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U18" t="s">
@@ -2759,7 +2898,7 @@
       <c r="G19" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="10" t="s">
         <v>98</v>
       </c>
       <c r="M19">
@@ -2780,7 +2919,7 @@
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U19" t="s">
@@ -2791,7 +2930,7 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B20">
@@ -2812,7 +2951,7 @@
       <c r="G20" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="10" t="s">
         <v>102</v>
       </c>
       <c r="M20">
@@ -2833,7 +2972,7 @@
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U20" t="s">
@@ -2865,7 +3004,7 @@
       <c r="G21" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="10" t="s">
         <v>106</v>
       </c>
       <c r="M21">
@@ -2886,7 +3025,7 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="T21" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U21" t="s">
@@ -2897,7 +3036,7 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B22">
@@ -2918,7 +3057,7 @@
       <c r="G22" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="10" t="s">
         <v>110</v>
       </c>
       <c r="M22">
@@ -2939,7 +3078,7 @@
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U22" t="s">
@@ -2950,7 +3089,7 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B23">
@@ -2971,7 +3110,7 @@
       <c r="G23" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="10"/>
       <c r="M23">
         <v>0</v>
       </c>
@@ -2990,7 +3129,7 @@
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U23" t="s">
@@ -3001,7 +3140,7 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B24">
@@ -3019,11 +3158,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="K24" s="4" t="s">
+      <c r="I24" s="10"/>
+      <c r="K24" s="12" t="s">
         <v>117</v>
       </c>
       <c r="M24">
@@ -3044,7 +3183,7 @@
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="T24" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U24" t="s">
@@ -3055,7 +3194,7 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B25">
@@ -3073,11 +3212,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="K25" s="4" t="s">
+      <c r="I25" s="10"/>
+      <c r="K25" s="12" t="s">
         <v>120</v>
       </c>
       <c r="M25">
@@ -3098,7 +3237,7 @@
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="T25" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U25" t="s">
@@ -3109,7 +3248,7 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B26">
@@ -3127,11 +3266,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="K26" s="4" t="s">
+      <c r="I26" s="10"/>
+      <c r="K26" s="12" t="s">
         <v>123</v>
       </c>
       <c r="M26">
@@ -3152,7 +3291,7 @@
       <c r="S26">
         <v>0</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U26" t="s">
@@ -3163,7 +3302,7 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B27">
@@ -3181,11 +3320,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="K27" s="4" t="s">
+      <c r="I27" s="10"/>
+      <c r="K27" s="12" t="s">
         <v>126</v>
       </c>
       <c r="M27">
@@ -3206,7 +3345,7 @@
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="T27" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U27" t="s">
@@ -3217,7 +3356,7 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B28">
@@ -3235,11 +3374,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="K28" s="4" t="s">
+      <c r="I28" s="10"/>
+      <c r="K28" s="12" t="s">
         <v>129</v>
       </c>
       <c r="M28">
@@ -3260,7 +3399,7 @@
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U28" t="s">
@@ -3271,7 +3410,7 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B29">
@@ -3289,11 +3428,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="K29" s="4" t="s">
+      <c r="I29" s="10"/>
+      <c r="K29" s="12" t="s">
         <v>132</v>
       </c>
       <c r="M29">
@@ -3314,7 +3453,7 @@
       <c r="S29">
         <v>0</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="T29" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U29" t="s">
@@ -3325,7 +3464,7 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B30">
@@ -3343,12 +3482,12 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
+      <c r="I30" s="10"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="s">
         <v>136</v>
       </c>
       <c r="M30">
@@ -3369,7 +3508,7 @@
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="T30" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U30" t="s">
@@ -3380,7 +3519,7 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B31">
@@ -3398,12 +3537,12 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
+      <c r="I31" s="10"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="s">
         <v>139</v>
       </c>
       <c r="M31">
@@ -3424,7 +3563,7 @@
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="T31" s="4" t="s">
+      <c r="T31" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U31" t="s">
@@ -3435,7 +3574,7 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B32">
@@ -3453,12 +3592,12 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
+      <c r="I32" s="10"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12" t="s">
         <v>142</v>
       </c>
       <c r="M32">
@@ -3479,7 +3618,7 @@
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="T32" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U32" t="s">
@@ -3490,7 +3629,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B33">
@@ -3508,12 +3647,12 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
+      <c r="I33" s="10"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12" t="s">
         <v>145</v>
       </c>
       <c r="M33">
@@ -3534,7 +3673,7 @@
       <c r="S33">
         <v>0</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="T33" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U33" t="s">
@@ -3545,7 +3684,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B34">
@@ -3563,12 +3702,12 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4" t="s">
+      <c r="I34" s="10"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12" t="s">
         <v>148</v>
       </c>
       <c r="M34">
@@ -3589,7 +3728,7 @@
       <c r="S34">
         <v>0</v>
       </c>
-      <c r="T34" s="4" t="s">
+      <c r="T34" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U34" t="s">
@@ -3600,7 +3739,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B35">
@@ -3618,12 +3757,12 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
+      <c r="I35" s="10"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12" t="s">
         <v>151</v>
       </c>
       <c r="M35">
@@ -3644,7 +3783,7 @@
       <c r="S35">
         <v>0</v>
       </c>
-      <c r="T35" s="4" t="s">
+      <c r="T35" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U35" t="s">
@@ -3655,7 +3794,7 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B36">
@@ -3673,10 +3812,10 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="12" t="s">
         <v>155</v>
       </c>
       <c r="M36">
@@ -3697,7 +3836,7 @@
       <c r="S36">
         <v>0</v>
       </c>
-      <c r="T36" s="4" t="s">
+      <c r="T36" s="12" t="s">
         <v>156</v>
       </c>
       <c r="U36" t="s">
@@ -3708,7 +3847,7 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="10" t="s">
         <v>158</v>
       </c>
       <c r="B37">
@@ -3726,10 +3865,10 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="12" t="s">
         <v>159</v>
       </c>
       <c r="M37">
@@ -3750,7 +3889,7 @@
       <c r="S37">
         <v>0</v>
       </c>
-      <c r="T37" s="4" t="s">
+      <c r="T37" s="12" t="s">
         <v>160</v>
       </c>
       <c r="U37" t="s">
@@ -3761,7 +3900,7 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B38">
@@ -3779,10 +3918,10 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="12" t="s">
         <v>163</v>
       </c>
       <c r="M38">
@@ -3803,7 +3942,7 @@
       <c r="S38">
         <v>0</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="T38" s="12" t="s">
         <v>164</v>
       </c>
       <c r="U38" t="s">
@@ -3814,7 +3953,7 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="10" t="s">
         <v>166</v>
       </c>
       <c r="B39">
@@ -3832,10 +3971,10 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="12" t="s">
         <v>167</v>
       </c>
       <c r="M39">
@@ -3856,7 +3995,7 @@
       <c r="S39">
         <v>0</v>
       </c>
-      <c r="T39" s="4" t="s">
+      <c r="T39" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U39" t="s">
@@ -3867,7 +4006,7 @@
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B40">
@@ -3885,10 +4024,10 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="12" t="s">
         <v>170</v>
       </c>
       <c r="M40">
@@ -3909,7 +4048,7 @@
       <c r="S40">
         <v>0</v>
       </c>
-      <c r="T40" s="4" t="s">
+      <c r="T40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U40" t="s">
@@ -3920,7 +4059,7 @@
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B41">
@@ -3938,10 +4077,10 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M41">
@@ -3962,7 +4101,7 @@
       <c r="S41">
         <v>0</v>
       </c>
-      <c r="T41" s="4" t="s">
+      <c r="T41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U41" t="s">
@@ -3973,7 +4112,7 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="10" t="s">
         <v>175</v>
       </c>
       <c r="B42">
@@ -3991,10 +4130,10 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="12" t="s">
         <v>176</v>
       </c>
       <c r="M42">
@@ -4015,7 +4154,7 @@
       <c r="S42">
         <v>0</v>
       </c>
-      <c r="T42" s="4" t="s">
+      <c r="T42" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U42" t="s">
@@ -4026,7 +4165,7 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="10" t="s">
         <v>178</v>
       </c>
       <c r="B43">
@@ -4044,10 +4183,10 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="12" t="s">
         <v>179</v>
       </c>
       <c r="M43">
@@ -4068,7 +4207,7 @@
       <c r="S43">
         <v>0</v>
       </c>
-      <c r="T43" s="4" t="s">
+      <c r="T43" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U43" t="s">
@@ -4079,7 +4218,7 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B44">
@@ -4097,10 +4236,10 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="12" t="s">
         <v>182</v>
       </c>
       <c r="M44">
@@ -4121,7 +4260,7 @@
       <c r="S44">
         <v>0</v>
       </c>
-      <c r="T44" s="4" t="s">
+      <c r="T44" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U44" t="s">
@@ -4132,7 +4271,7 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="10" t="s">
         <v>184</v>
       </c>
       <c r="B45">
@@ -4150,10 +4289,10 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="12" t="s">
         <v>185</v>
       </c>
       <c r="M45">
@@ -4174,7 +4313,7 @@
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45" s="4" t="s">
+      <c r="T45" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U45" t="s">
@@ -4185,7 +4324,7 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B46">
@@ -4203,10 +4342,10 @@
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="12" t="s">
         <v>188</v>
       </c>
       <c r="M46">
@@ -4227,7 +4366,7 @@
       <c r="S46">
         <v>0</v>
       </c>
-      <c r="T46" s="4" t="s">
+      <c r="T46" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U46" t="s">
@@ -4238,7 +4377,7 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="10" t="s">
         <v>190</v>
       </c>
       <c r="B47">
@@ -4256,10 +4395,10 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="12" t="s">
         <v>192</v>
       </c>
       <c r="M47">
@@ -4280,7 +4419,7 @@
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47" s="4" t="s">
+      <c r="T47" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U47" t="s">
@@ -4291,7 +4430,7 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B48">
@@ -4309,10 +4448,10 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="12" t="s">
         <v>195</v>
       </c>
       <c r="M48">
@@ -4333,7 +4472,7 @@
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48" s="4" t="s">
+      <c r="T48" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U48" t="s">
@@ -4344,7 +4483,7 @@
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B49">
@@ -4362,10 +4501,10 @@
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M49">
@@ -4386,7 +4525,7 @@
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="T49" s="4" t="s">
+      <c r="T49" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U49" t="s">
@@ -4397,7 +4536,7 @@
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="10" t="s">
         <v>200</v>
       </c>
       <c r="B50">
@@ -4415,10 +4554,10 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="12" t="s">
         <v>201</v>
       </c>
       <c r="M50">
@@ -4439,7 +4578,7 @@
       <c r="S50">
         <v>0</v>
       </c>
-      <c r="T50" s="4" t="s">
+      <c r="T50" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U50" t="s">
@@ -4450,7 +4589,7 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="10" t="s">
         <v>203</v>
       </c>
       <c r="B51">
@@ -4468,10 +4607,10 @@
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="12" t="s">
         <v>204</v>
       </c>
       <c r="M51">
@@ -4492,7 +4631,7 @@
       <c r="S51">
         <v>0</v>
       </c>
-      <c r="T51" s="4" t="s">
+      <c r="T51" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U51" t="s">
@@ -4503,7 +4642,7 @@
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="10" t="s">
         <v>206</v>
       </c>
       <c r="B52">
@@ -4521,10 +4660,10 @@
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="12" t="s">
         <v>207</v>
       </c>
       <c r="M52">
@@ -4545,7 +4684,7 @@
       <c r="S52">
         <v>0</v>
       </c>
-      <c r="T52" s="4" t="s">
+      <c r="T52" s="12" t="s">
         <v>55</v>
       </c>
       <c r="U52" t="s">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -4357,11 +4357,11 @@
   <dimension ref="A1:V309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39:N53"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O28" s="17">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O29" s="17">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O30" s="17">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O31" s="17">
         <v>0</v>
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O32" s="17">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O33" s="17">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O34" s="17">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O35" s="17">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O36" s="17">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O37" s="17">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="O38" s="17">
         <v>0</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -2997,8 +2997,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -3026,14 +3026,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3047,7 +3063,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3062,55 +3147,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3122,48 +3161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3232,7 +3232,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3244,31 +3316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,7 +3340,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3298,49 +3370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,61 +3400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3578,6 +3578,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3608,54 +3665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3663,15 +3672,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3683,145 +3683,145 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4358,11 +4358,11 @@
   <dimension ref="A1:V310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="W9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5353,7 +5353,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M16" s="19">
         <v>1</v>
@@ -5577,7 +5577,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M20" s="19">
         <v>1</v>
@@ -5801,7 +5801,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M24" s="19">
         <v>1</v>
@@ -6529,7 +6529,7 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M37" s="19">
         <v>1</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\fork\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -18,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="987">
   <si>
     <t>Id</t>
   </si>
@@ -2991,14 +2996,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3015,151 +3014,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3186,7 +3047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3198,216 +3059,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3573,251 +3254,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4018,61 +3457,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -4092,6 +3483,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4352,44 +3751,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="31.5" customWidth="1"/>
-    <col min="13" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="17.75" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" customWidth="1"/>
+    <col min="12" max="12" width="31.453125" customWidth="1"/>
+    <col min="13" max="14" width="14.08984375" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="18.625" customWidth="1"/>
-    <col min="20" max="20" width="20.125" customWidth="1"/>
-    <col min="21" max="21" width="21.5" customWidth="1"/>
-    <col min="22" max="22" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="18.6328125" customWidth="1"/>
+    <col min="20" max="20" width="20.08984375" customWidth="1"/>
+    <col min="21" max="21" width="21.453125" customWidth="1"/>
+    <col min="22" max="22" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +3854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:22">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -4525,7 +3922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:22">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -4593,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:22">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -4661,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:22">
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -4729,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:22">
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
@@ -4797,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="92" customHeight="1" spans="1:22">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -4865,7 +4262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -4921,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>57</v>
       </c>
@@ -4977,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:22">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>60</v>
       </c>
@@ -5033,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:22">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>63</v>
       </c>
@@ -5089,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:22">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
@@ -5145,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:22">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>70</v>
       </c>
@@ -5201,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:22">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -5257,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:22">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>76</v>
       </c>
@@ -5284,7 +4681,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M15" s="17">
         <v>1</v>
@@ -5313,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:22">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>79</v>
       </c>
@@ -5369,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:22">
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>83</v>
       </c>
@@ -5425,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:22">
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>86</v>
       </c>
@@ -5481,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:22">
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>89</v>
       </c>
@@ -5508,7 +4905,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M19" s="17">
         <v>1</v>
@@ -5537,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:22">
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>92</v>
       </c>
@@ -5593,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:22">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>96</v>
       </c>
@@ -5649,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:22">
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>99</v>
       </c>
@@ -5705,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:22">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>102</v>
       </c>
@@ -5732,7 +5129,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M23" s="17">
         <v>1</v>
@@ -5761,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:22">
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>105</v>
       </c>
@@ -5817,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:22">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>109</v>
       </c>
@@ -5873,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:22">
+    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>112</v>
       </c>
@@ -5929,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:22">
+    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>115</v>
       </c>
@@ -5985,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:22">
+    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>118</v>
       </c>
@@ -6041,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:22">
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>122</v>
       </c>
@@ -6097,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:22">
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>125</v>
       </c>
@@ -6153,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:22">
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>128</v>
       </c>
@@ -6209,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="15" customHeight="1" spans="1:22">
+    <row r="32" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>131</v>
       </c>
@@ -6265,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:22">
+    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>134</v>
       </c>
@@ -6321,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:22">
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>138</v>
       </c>
@@ -6377,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:22">
+    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>141</v>
       </c>
@@ -6433,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:22">
+    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>144</v>
       </c>
@@ -6460,7 +5857,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17">
-        <v>800.000000000001</v>
+        <v>800</v>
       </c>
       <c r="M36" s="17">
         <v>1</v>
@@ -6489,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:22">
+    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>147</v>
       </c>
@@ -6545,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:22">
+    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>150</v>
       </c>
@@ -6601,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:22">
+    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>153</v>
       </c>
@@ -6657,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:22">
+    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>157</v>
       </c>
@@ -6713,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:22">
+    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>160</v>
       </c>
@@ -6769,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:22">
+    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>163</v>
       </c>
@@ -6825,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:22">
+    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>166</v>
       </c>
@@ -6881,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:22">
+    <row r="44" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>169</v>
       </c>
@@ -6937,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:22">
+    <row r="45" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>172</v>
       </c>
@@ -6993,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" spans="1:22">
+    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>175</v>
       </c>
@@ -7049,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:22">
+    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>178</v>
       </c>
@@ -7105,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:22">
+    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>181</v>
       </c>
@@ -7161,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:22">
+    <row r="49" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>184</v>
       </c>
@@ -7217,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="1" spans="1:22">
+    <row r="50" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>188</v>
       </c>
@@ -7273,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:22">
+    <row r="51" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>191</v>
       </c>
@@ -7329,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:22">
+    <row r="52" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>194</v>
       </c>
@@ -7385,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:22">
+    <row r="53" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>197</v>
       </c>
@@ -7441,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" spans="1:22">
+    <row r="54" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>200</v>
       </c>
@@ -7497,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1" spans="1:22">
+    <row r="55" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>204</v>
       </c>
@@ -7553,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="1" spans="1:22">
+    <row r="56" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>207</v>
       </c>
@@ -7609,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="4" customFormat="1" spans="1:22">
+    <row r="57" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>210</v>
       </c>
@@ -7665,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="4" customFormat="1" spans="1:22">
+    <row r="58" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>213</v>
       </c>
@@ -7721,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="4" customFormat="1" spans="1:22">
+    <row r="59" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>216</v>
       </c>
@@ -7777,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="4" customFormat="1" spans="1:22">
+    <row r="60" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>219</v>
       </c>
@@ -7833,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1" spans="1:22">
+    <row r="61" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>222</v>
       </c>
@@ -7889,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:22">
+    <row r="62" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>225</v>
       </c>
@@ -7945,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:22">
+    <row r="63" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>228</v>
       </c>
@@ -8001,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1" spans="1:22">
+    <row r="64" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>231</v>
       </c>
@@ -8057,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:22">
+    <row r="65" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>235</v>
       </c>
@@ -8113,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:22">
+    <row r="66" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>238</v>
       </c>
@@ -8169,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:22">
+    <row r="67" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>241</v>
       </c>
@@ -8225,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="4" customFormat="1" spans="1:22">
+    <row r="68" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>244</v>
       </c>
@@ -8281,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="4" customFormat="1" spans="1:22">
+    <row r="69" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>247</v>
       </c>
@@ -8337,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="4" customFormat="1" spans="1:22">
+    <row r="70" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>250</v>
       </c>
@@ -8393,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="4" customFormat="1" spans="1:22">
+    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>253</v>
       </c>
@@ -8449,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="4" customFormat="1" spans="1:22">
+    <row r="72" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>256</v>
       </c>
@@ -8505,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="4" customFormat="1" spans="1:22">
+    <row r="73" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>259</v>
       </c>
@@ -8561,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:22">
+    <row r="74" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>262</v>
       </c>
@@ -8617,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1" spans="1:22">
+    <row r="75" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>266</v>
       </c>
@@ -8673,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:22">
+    <row r="76" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>269</v>
       </c>
@@ -8729,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="4" customFormat="1" spans="1:22">
+    <row r="77" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>272</v>
       </c>
@@ -8785,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="4" customFormat="1" spans="1:22">
+    <row r="78" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>275</v>
       </c>
@@ -8841,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="4" customFormat="1" spans="1:22">
+    <row r="79" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>278</v>
       </c>
@@ -8897,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="4" customFormat="1" spans="1:22">
+    <row r="80" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>281</v>
       </c>
@@ -8953,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="4" customFormat="1" spans="1:22">
+    <row r="81" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>284</v>
       </c>
@@ -9009,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="4" customFormat="1" spans="1:22">
+    <row r="82" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>287</v>
       </c>
@@ -9065,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" s="4" customFormat="1" spans="1:22">
+    <row r="83" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>290</v>
       </c>
@@ -9121,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="4" customFormat="1" spans="1:22">
+    <row r="84" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>293</v>
       </c>
@@ -9177,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="4" customFormat="1" spans="1:22">
+    <row r="85" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>297</v>
       </c>
@@ -9233,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" s="4" customFormat="1" spans="1:22">
+    <row r="86" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>300</v>
       </c>
@@ -9289,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" s="4" customFormat="1" spans="1:22">
+    <row r="87" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>303</v>
       </c>
@@ -9345,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" s="4" customFormat="1" spans="1:22">
+    <row r="88" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>306</v>
       </c>
@@ -9401,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" s="4" customFormat="1" spans="1:22">
+    <row r="89" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>309</v>
       </c>
@@ -9457,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" s="4" customFormat="1" spans="1:22">
+    <row r="90" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>312</v>
       </c>
@@ -9513,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" s="4" customFormat="1" spans="1:22">
+    <row r="91" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>315</v>
       </c>
@@ -9569,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" s="4" customFormat="1" spans="1:22">
+    <row r="92" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>318</v>
       </c>
@@ -9625,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" s="4" customFormat="1" spans="1:22">
+    <row r="93" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>321</v>
       </c>
@@ -9681,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" s="5" customFormat="1" spans="1:22">
+    <row r="94" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>324</v>
       </c>
@@ -9737,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" s="5" customFormat="1" spans="1:22">
+    <row r="95" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>328</v>
       </c>
@@ -9793,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="5" customFormat="1" spans="1:22">
+    <row r="96" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>331</v>
       </c>
@@ -9849,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" s="5" customFormat="1" spans="1:22">
+    <row r="97" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>334</v>
       </c>
@@ -9905,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" s="5" customFormat="1" spans="1:22">
+    <row r="98" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>337</v>
       </c>
@@ -9961,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" s="5" customFormat="1" spans="1:22">
+    <row r="99" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>340</v>
       </c>
@@ -10017,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" s="5" customFormat="1" spans="1:22">
+    <row r="100" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>343</v>
       </c>
@@ -10073,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" s="5" customFormat="1" spans="1:22">
+    <row r="101" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>346</v>
       </c>
@@ -10129,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" s="5" customFormat="1" spans="1:22">
+    <row r="102" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>349</v>
       </c>
@@ -10185,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:22">
+    <row r="103" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>352</v>
       </c>
@@ -10241,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" s="4" customFormat="1" spans="1:22">
+    <row r="104" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>355</v>
       </c>
@@ -10297,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" s="4" customFormat="1" spans="1:22">
+    <row r="105" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>359</v>
       </c>
@@ -10353,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" s="4" customFormat="1" spans="1:22">
+    <row r="106" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>362</v>
       </c>
@@ -10409,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" s="4" customFormat="1" spans="1:22">
+    <row r="107" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>365</v>
       </c>
@@ -10465,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" s="4" customFormat="1" spans="1:22">
+    <row r="108" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>368</v>
       </c>
@@ -10521,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:22">
+    <row r="109" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>371</v>
       </c>
@@ -10577,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" s="4" customFormat="1" spans="1:22">
+    <row r="110" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>374</v>
       </c>
@@ -10633,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" s="4" customFormat="1" spans="1:22">
+    <row r="111" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>377</v>
       </c>
@@ -10689,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" s="4" customFormat="1" spans="1:22">
+    <row r="112" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>380</v>
       </c>
@@ -10745,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" s="4" customFormat="1" spans="1:22">
+    <row r="113" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>383</v>
       </c>
@@ -10801,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" s="4" customFormat="1" spans="1:22">
+    <row r="114" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>386</v>
       </c>
@@ -10857,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" s="4" customFormat="1" spans="1:22">
+    <row r="115" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>390</v>
       </c>
@@ -10913,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:22">
+    <row r="116" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>393</v>
       </c>
@@ -10969,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" s="4" customFormat="1" spans="1:22">
+    <row r="117" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>396</v>
       </c>
@@ -11025,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" s="4" customFormat="1" spans="1:22">
+    <row r="118" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>399</v>
       </c>
@@ -11081,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" spans="1:22">
+    <row r="119" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>402</v>
       </c>
@@ -11137,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" s="4" customFormat="1" spans="1:22">
+    <row r="120" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>405</v>
       </c>
@@ -11193,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" s="4" customFormat="1" spans="1:22">
+    <row r="121" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>408</v>
       </c>
@@ -11249,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" s="4" customFormat="1" spans="1:22">
+    <row r="122" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>411</v>
       </c>
@@ -11305,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:22">
+    <row r="123" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>414</v>
       </c>
@@ -11361,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" s="6" customFormat="1" spans="1:22">
+    <row r="124" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>417</v>
       </c>
@@ -11419,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" s="6" customFormat="1" spans="1:22">
+    <row r="125" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>422</v>
       </c>
@@ -11477,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" s="6" customFormat="1" spans="1:22">
+    <row r="126" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>426</v>
       </c>
@@ -11535,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" s="6" customFormat="1" spans="1:22">
+    <row r="127" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>430</v>
       </c>
@@ -11593,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" s="6" customFormat="1" spans="1:22">
+    <row r="128" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>434</v>
       </c>
@@ -11651,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" s="6" customFormat="1" spans="1:22">
+    <row r="129" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>438</v>
       </c>
@@ -11709,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" s="7" customFormat="1" spans="1:22">
+    <row r="130" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
         <v>442</v>
       </c>
@@ -11765,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" s="7" customFormat="1" spans="1:22">
+    <row r="131" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
         <v>446</v>
       </c>
@@ -11821,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" s="7" customFormat="1" spans="1:22">
+    <row r="132" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
         <v>449</v>
       </c>
@@ -11877,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" s="7" customFormat="1" spans="1:22">
+    <row r="133" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
         <v>452</v>
       </c>
@@ -11933,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" s="7" customFormat="1" spans="1:22">
+    <row r="134" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
         <v>455</v>
       </c>
@@ -11989,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" s="7" customFormat="1" spans="1:22">
+    <row r="135" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
         <v>458</v>
       </c>
@@ -12045,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" s="7" customFormat="1" spans="1:22">
+    <row r="136" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
         <v>461</v>
       </c>
@@ -12101,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" s="7" customFormat="1" spans="1:22">
+    <row r="137" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
         <v>464</v>
       </c>
@@ -12157,7 +11554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" s="7" customFormat="1" spans="1:22">
+    <row r="138" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
         <v>467</v>
       </c>
@@ -12213,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" s="7" customFormat="1" spans="1:22">
+    <row r="139" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
         <v>470</v>
       </c>
@@ -12269,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" s="7" customFormat="1" spans="1:22">
+    <row r="140" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
         <v>473</v>
       </c>
@@ -12325,7 +11722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" s="7" customFormat="1" spans="1:22">
+    <row r="141" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
         <v>476</v>
       </c>
@@ -12381,7 +11778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" s="7" customFormat="1" spans="1:22">
+    <row r="142" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="36" t="s">
         <v>479</v>
       </c>
@@ -12437,7 +11834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" s="7" customFormat="1" spans="1:22">
+    <row r="143" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
         <v>482</v>
       </c>
@@ -12493,7 +11890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" s="7" customFormat="1" spans="1:22">
+    <row r="144" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
         <v>485</v>
       </c>
@@ -12549,7 +11946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" s="7" customFormat="1" spans="1:22">
+    <row r="145" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
         <v>488</v>
       </c>
@@ -12605,7 +12002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" s="7" customFormat="1" spans="1:22">
+    <row r="146" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
         <v>491</v>
       </c>
@@ -12661,7 +12058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" s="7" customFormat="1" spans="1:22">
+    <row r="147" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
         <v>494</v>
       </c>
@@ -12717,7 +12114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" s="7" customFormat="1" spans="1:22">
+    <row r="148" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
         <v>497</v>
       </c>
@@ -12773,7 +12170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" s="7" customFormat="1" spans="1:22">
+    <row r="149" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
         <v>500</v>
       </c>
@@ -12829,7 +12226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" s="7" customFormat="1" spans="1:22">
+    <row r="150" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
         <v>503</v>
       </c>
@@ -12885,7 +12282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" s="7" customFormat="1" spans="1:22">
+    <row r="151" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
         <v>506</v>
       </c>
@@ -12941,7 +12338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" s="7" customFormat="1" spans="1:22">
+    <row r="152" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
         <v>509</v>
       </c>
@@ -12997,7 +12394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" s="7" customFormat="1" spans="1:22">
+    <row r="153" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
         <v>512</v>
       </c>
@@ -13053,7 +12450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" s="7" customFormat="1" spans="1:22">
+    <row r="154" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
         <v>515</v>
       </c>
@@ -13109,7 +12506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" s="7" customFormat="1" spans="1:22">
+    <row r="155" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
         <v>518</v>
       </c>
@@ -13165,7 +12562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" s="7" customFormat="1" spans="1:22">
+    <row r="156" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
         <v>521</v>
       </c>
@@ -13221,7 +12618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" s="7" customFormat="1" spans="1:22">
+    <row r="157" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
         <v>524</v>
       </c>
@@ -13277,7 +12674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" s="7" customFormat="1" spans="1:22">
+    <row r="158" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
         <v>527</v>
       </c>
@@ -13333,7 +12730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" s="7" customFormat="1" spans="1:22">
+    <row r="159" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
         <v>530</v>
       </c>
@@ -13389,7 +12786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" s="8" customFormat="1" spans="1:22">
+    <row r="160" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="38" t="s">
         <v>533</v>
       </c>
@@ -13445,7 +12842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" s="8" customFormat="1" spans="1:22">
+    <row r="161" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="38" t="s">
         <v>537</v>
       </c>
@@ -13501,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" s="8" customFormat="1" spans="1:22">
+    <row r="162" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="38" t="s">
         <v>540</v>
       </c>
@@ -13557,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" s="8" customFormat="1" spans="1:22">
+    <row r="163" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="38" t="s">
         <v>543</v>
       </c>
@@ -13613,7 +13010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" s="8" customFormat="1" spans="1:22">
+    <row r="164" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="38" t="s">
         <v>546</v>
       </c>
@@ -13669,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" s="8" customFormat="1" spans="1:22">
+    <row r="165" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="38" t="s">
         <v>549</v>
       </c>
@@ -13725,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" s="8" customFormat="1" spans="1:22">
+    <row r="166" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="38" t="s">
         <v>552</v>
       </c>
@@ -13781,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" s="8" customFormat="1" spans="1:22">
+    <row r="167" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="38" t="s">
         <v>555</v>
       </c>
@@ -13837,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" s="8" customFormat="1" spans="1:22">
+    <row r="168" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="38" t="s">
         <v>558</v>
       </c>
@@ -13893,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" s="8" customFormat="1" spans="1:22">
+    <row r="169" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="38" t="s">
         <v>561</v>
       </c>
@@ -13949,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" s="8" customFormat="1" spans="1:22">
+    <row r="170" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="38" t="s">
         <v>564</v>
       </c>
@@ -14005,7 +13402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="171" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="38" t="s">
         <v>567</v>
       </c>
@@ -14061,7 +13458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="172" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="38" t="s">
         <v>570</v>
       </c>
@@ -14117,7 +13514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="173" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="38" t="s">
         <v>573</v>
       </c>
@@ -14173,7 +13570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="174" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="38" t="s">
         <v>576</v>
       </c>
@@ -14229,7 +13626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="175" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="38" t="s">
         <v>579</v>
       </c>
@@ -14285,7 +13682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="176" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="38" t="s">
         <v>582</v>
       </c>
@@ -14341,7 +13738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="177" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="38" t="s">
         <v>585</v>
       </c>
@@ -14397,7 +13794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="178" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="38" t="s">
         <v>588</v>
       </c>
@@ -14453,7 +13850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="179" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="38" t="s">
         <v>591</v>
       </c>
@@ -14509,7 +13906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="180" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="38" t="s">
         <v>594</v>
       </c>
@@ -14565,7 +13962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="181" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="38" t="s">
         <v>597</v>
       </c>
@@ -14621,7 +14018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="182" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="38" t="s">
         <v>600</v>
       </c>
@@ -14677,7 +14074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="183" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="38" t="s">
         <v>603</v>
       </c>
@@ -14733,7 +14130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="184" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="38" t="s">
         <v>606</v>
       </c>
@@ -14789,7 +14186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="185" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="38" t="s">
         <v>609</v>
       </c>
@@ -14845,7 +14242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="186" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="38" t="s">
         <v>612</v>
       </c>
@@ -14901,7 +14298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="187" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="38" t="s">
         <v>615</v>
       </c>
@@ -14957,7 +14354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="188" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
         <v>618</v>
       </c>
@@ -15013,7 +14410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" s="8" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="189" spans="1:22" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="38" t="s">
         <v>621</v>
       </c>
@@ -15069,7 +14466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" s="7" customFormat="1" spans="1:22">
+    <row r="190" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
         <v>624</v>
       </c>
@@ -15125,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" s="7" customFormat="1" spans="1:22">
+    <row r="191" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
         <v>628</v>
       </c>
@@ -15181,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" s="7" customFormat="1" spans="1:22">
+    <row r="192" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
         <v>631</v>
       </c>
@@ -15237,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" s="7" customFormat="1" spans="1:22">
+    <row r="193" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36" t="s">
         <v>634</v>
       </c>
@@ -15293,7 +14690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" s="7" customFormat="1" spans="1:22">
+    <row r="194" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36" t="s">
         <v>637</v>
       </c>
@@ -15349,7 +14746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" s="7" customFormat="1" spans="1:22">
+    <row r="195" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36" t="s">
         <v>640</v>
       </c>
@@ -15405,7 +14802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" s="7" customFormat="1" spans="1:22">
+    <row r="196" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
         <v>643</v>
       </c>
@@ -15461,7 +14858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" s="7" customFormat="1" spans="1:22">
+    <row r="197" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
         <v>646</v>
       </c>
@@ -15517,7 +14914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" s="7" customFormat="1" spans="1:22">
+    <row r="198" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
         <v>649</v>
       </c>
@@ -15573,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" s="7" customFormat="1" spans="1:22">
+    <row r="199" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
         <v>652</v>
       </c>
@@ -15629,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" s="7" customFormat="1" spans="1:22">
+    <row r="200" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
         <v>655</v>
       </c>
@@ -15685,7 +15082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" s="7" customFormat="1" spans="1:22">
+    <row r="201" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="36" t="s">
         <v>658</v>
       </c>
@@ -15741,7 +15138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" s="7" customFormat="1" spans="1:22">
+    <row r="202" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36" t="s">
         <v>661</v>
       </c>
@@ -15797,7 +15194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" s="7" customFormat="1" spans="1:22">
+    <row r="203" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="36" t="s">
         <v>664</v>
       </c>
@@ -15853,7 +15250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" s="7" customFormat="1" spans="1:22">
+    <row r="204" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36" t="s">
         <v>667</v>
       </c>
@@ -15909,7 +15306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" s="7" customFormat="1" spans="1:22">
+    <row r="205" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="36" t="s">
         <v>670</v>
       </c>
@@ -15965,7 +15362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" s="7" customFormat="1" spans="1:22">
+    <row r="206" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36" t="s">
         <v>673</v>
       </c>
@@ -16021,7 +15418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" s="7" customFormat="1" spans="1:22">
+    <row r="207" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36" t="s">
         <v>676</v>
       </c>
@@ -16077,7 +15474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" s="7" customFormat="1" spans="1:22">
+    <row r="208" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36" t="s">
         <v>679</v>
       </c>
@@ -16133,7 +15530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" s="7" customFormat="1" spans="1:22">
+    <row r="209" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36" t="s">
         <v>682</v>
       </c>
@@ -16189,7 +15586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" s="7" customFormat="1" spans="1:22">
+    <row r="210" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36" t="s">
         <v>685</v>
       </c>
@@ -16245,7 +15642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" s="7" customFormat="1" spans="1:22">
+    <row r="211" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="36" t="s">
         <v>688</v>
       </c>
@@ -16301,7 +15698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" s="7" customFormat="1" spans="1:22">
+    <row r="212" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="36" t="s">
         <v>691</v>
       </c>
@@ -16357,7 +15754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" s="7" customFormat="1" spans="1:22">
+    <row r="213" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="36" t="s">
         <v>694</v>
       </c>
@@ -16413,7 +15810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" s="7" customFormat="1" spans="1:22">
+    <row r="214" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="36" t="s">
         <v>697</v>
       </c>
@@ -16469,7 +15866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" s="7" customFormat="1" spans="1:22">
+    <row r="215" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="36" t="s">
         <v>700</v>
       </c>
@@ -16525,7 +15922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" s="7" customFormat="1" spans="1:22">
+    <row r="216" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="36" t="s">
         <v>703</v>
       </c>
@@ -16581,7 +15978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" s="7" customFormat="1" spans="1:22">
+    <row r="217" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="36" t="s">
         <v>706</v>
       </c>
@@ -16637,7 +16034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" s="7" customFormat="1" spans="1:22">
+    <row r="218" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="36" t="s">
         <v>709</v>
       </c>
@@ -16693,7 +16090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" s="7" customFormat="1" spans="1:22">
+    <row r="219" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="36" t="s">
         <v>712</v>
       </c>
@@ -16749,7 +16146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" s="8" customFormat="1" spans="1:22">
+    <row r="220" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="38" t="s">
         <v>715</v>
       </c>
@@ -16805,7 +16202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" s="8" customFormat="1" spans="1:22">
+    <row r="221" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="38" t="s">
         <v>719</v>
       </c>
@@ -16861,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" s="8" customFormat="1" spans="1:22">
+    <row r="222" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="38" t="s">
         <v>722</v>
       </c>
@@ -16917,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" s="8" customFormat="1" spans="1:22">
+    <row r="223" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="38" t="s">
         <v>725</v>
       </c>
@@ -16973,7 +16370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" s="8" customFormat="1" spans="1:22">
+    <row r="224" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="38" t="s">
         <v>728</v>
       </c>
@@ -17029,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" s="8" customFormat="1" spans="1:22">
+    <row r="225" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="38" t="s">
         <v>731</v>
       </c>
@@ -17085,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" s="8" customFormat="1" spans="1:22">
+    <row r="226" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="38" t="s">
         <v>734</v>
       </c>
@@ -17141,7 +16538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" s="8" customFormat="1" spans="1:22">
+    <row r="227" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="38" t="s">
         <v>737</v>
       </c>
@@ -17197,7 +16594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" s="8" customFormat="1" spans="1:22">
+    <row r="228" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="s">
         <v>740</v>
       </c>
@@ -17253,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" s="8" customFormat="1" spans="1:22">
+    <row r="229" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="38" t="s">
         <v>743</v>
       </c>
@@ -17309,7 +16706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" s="8" customFormat="1" spans="1:22">
+    <row r="230" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="38" t="s">
         <v>746</v>
       </c>
@@ -17365,7 +16762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" s="8" customFormat="1" spans="1:22">
+    <row r="231" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="38" t="s">
         <v>749</v>
       </c>
@@ -17421,7 +16818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" s="8" customFormat="1" spans="1:22">
+    <row r="232" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="38" t="s">
         <v>752</v>
       </c>
@@ -17477,7 +16874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" s="8" customFormat="1" spans="1:22">
+    <row r="233" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="38" t="s">
         <v>755</v>
       </c>
@@ -17533,7 +16930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" s="8" customFormat="1" spans="1:22">
+    <row r="234" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="38" t="s">
         <v>758</v>
       </c>
@@ -17589,7 +16986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" s="8" customFormat="1" spans="1:22">
+    <row r="235" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="38" t="s">
         <v>761</v>
       </c>
@@ -17645,7 +17042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" s="8" customFormat="1" spans="1:22">
+    <row r="236" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="38" t="s">
         <v>764</v>
       </c>
@@ -17701,7 +17098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" s="8" customFormat="1" spans="1:22">
+    <row r="237" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="38" t="s">
         <v>767</v>
       </c>
@@ -17757,7 +17154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" s="8" customFormat="1" spans="1:22">
+    <row r="238" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="38" t="s">
         <v>770</v>
       </c>
@@ -17813,7 +17210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" s="8" customFormat="1" spans="1:22">
+    <row r="239" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="38" t="s">
         <v>773</v>
       </c>
@@ -17869,7 +17266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" s="8" customFormat="1" spans="1:22">
+    <row r="240" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="38" t="s">
         <v>776</v>
       </c>
@@ -17925,7 +17322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" s="8" customFormat="1" spans="1:22">
+    <row r="241" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="38" t="s">
         <v>779</v>
       </c>
@@ -17981,7 +17378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" s="8" customFormat="1" spans="1:22">
+    <row r="242" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="38" t="s">
         <v>782</v>
       </c>
@@ -18037,7 +17434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" s="8" customFormat="1" spans="1:22">
+    <row r="243" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="38" t="s">
         <v>785</v>
       </c>
@@ -18093,7 +17490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" s="8" customFormat="1" spans="1:22">
+    <row r="244" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="38" t="s">
         <v>788</v>
       </c>
@@ -18149,7 +17546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" s="8" customFormat="1" spans="1:22">
+    <row r="245" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="38" t="s">
         <v>791</v>
       </c>
@@ -18205,7 +17602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" s="8" customFormat="1" spans="1:22">
+    <row r="246" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="38" t="s">
         <v>794</v>
       </c>
@@ -18261,7 +17658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" s="8" customFormat="1" spans="1:22">
+    <row r="247" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="38" t="s">
         <v>797</v>
       </c>
@@ -18317,7 +17714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" s="9" customFormat="1" spans="1:22">
+    <row r="248" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="42" t="s">
         <v>800</v>
       </c>
@@ -18373,7 +17770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" s="9" customFormat="1" spans="1:22">
+    <row r="249" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="42" t="s">
         <v>803</v>
       </c>
@@ -18429,7 +17826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" s="10" customFormat="1" spans="1:22">
+    <row r="250" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="44" t="s">
         <v>806</v>
       </c>
@@ -18485,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" s="10" customFormat="1" spans="1:22">
+    <row r="251" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="44" t="s">
         <v>810</v>
       </c>
@@ -18541,7 +17938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" s="10" customFormat="1" spans="1:22">
+    <row r="252" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="44" t="s">
         <v>813</v>
       </c>
@@ -18597,7 +17994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" s="10" customFormat="1" spans="1:22">
+    <row r="253" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="44" t="s">
         <v>816</v>
       </c>
@@ -18653,7 +18050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" s="10" customFormat="1" spans="1:22">
+    <row r="254" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="44" t="s">
         <v>819</v>
       </c>
@@ -18709,7 +18106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" s="10" customFormat="1" spans="1:22">
+    <row r="255" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="44" t="s">
         <v>822</v>
       </c>
@@ -18765,7 +18162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" s="10" customFormat="1" spans="1:22">
+    <row r="256" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="44" t="s">
         <v>825</v>
       </c>
@@ -18821,7 +18218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" s="10" customFormat="1" spans="1:22">
+    <row r="257" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="44" t="s">
         <v>828</v>
       </c>
@@ -18877,7 +18274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" s="10" customFormat="1" spans="1:22">
+    <row r="258" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="44" t="s">
         <v>831</v>
       </c>
@@ -18933,7 +18330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" s="10" customFormat="1" spans="1:22">
+    <row r="259" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="44" t="s">
         <v>834</v>
       </c>
@@ -18989,7 +18386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" s="10" customFormat="1" spans="1:22">
+    <row r="260" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="44" t="s">
         <v>837</v>
       </c>
@@ -19045,7 +18442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" s="10" customFormat="1" spans="1:22">
+    <row r="261" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="44" t="s">
         <v>840</v>
       </c>
@@ -19101,7 +18498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" s="10" customFormat="1" spans="1:22">
+    <row r="262" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="44" t="s">
         <v>843</v>
       </c>
@@ -19157,7 +18554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" s="10" customFormat="1" spans="1:22">
+    <row r="263" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="44" t="s">
         <v>846</v>
       </c>
@@ -19213,7 +18610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" s="10" customFormat="1" spans="1:22">
+    <row r="264" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="44" t="s">
         <v>849</v>
       </c>
@@ -19269,7 +18666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" s="10" customFormat="1" spans="1:22">
+    <row r="265" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="44" t="s">
         <v>852</v>
       </c>
@@ -19325,7 +18722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" s="10" customFormat="1" spans="1:22">
+    <row r="266" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="44" t="s">
         <v>855</v>
       </c>
@@ -19381,7 +18778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" s="10" customFormat="1" spans="1:22">
+    <row r="267" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="44" t="s">
         <v>858</v>
       </c>
@@ -19437,7 +18834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" s="10" customFormat="1" spans="1:22">
+    <row r="268" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="44" t="s">
         <v>861</v>
       </c>
@@ -19493,7 +18890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" s="10" customFormat="1" spans="1:22">
+    <row r="269" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="44" t="s">
         <v>864</v>
       </c>
@@ -19549,7 +18946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" s="10" customFormat="1" spans="1:22">
+    <row r="270" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="44" t="s">
         <v>867</v>
       </c>
@@ -19605,7 +19002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" s="10" customFormat="1" spans="1:22">
+    <row r="271" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="44" t="s">
         <v>870</v>
       </c>
@@ -19661,7 +19058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" s="10" customFormat="1" spans="1:22">
+    <row r="272" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="44" t="s">
         <v>873</v>
       </c>
@@ -19717,7 +19114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" s="10" customFormat="1" spans="1:22">
+    <row r="273" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="44" t="s">
         <v>876</v>
       </c>
@@ -19773,7 +19170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" s="10" customFormat="1" spans="1:22">
+    <row r="274" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="44" t="s">
         <v>879</v>
       </c>
@@ -19829,7 +19226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" s="10" customFormat="1" spans="1:22">
+    <row r="275" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="44" t="s">
         <v>882</v>
       </c>
@@ -19885,7 +19282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" s="10" customFormat="1" spans="1:22">
+    <row r="276" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="44" t="s">
         <v>885</v>
       </c>
@@ -19941,7 +19338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" s="10" customFormat="1" spans="1:22">
+    <row r="277" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="44" t="s">
         <v>888</v>
       </c>
@@ -19997,7 +19394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" s="10" customFormat="1" spans="1:22">
+    <row r="278" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="44" t="s">
         <v>891</v>
       </c>
@@ -20053,7 +19450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="279" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="44" t="s">
         <v>894</v>
       </c>
@@ -20109,7 +19506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" s="11" customFormat="1" spans="1:22">
+    <row r="280" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="50" t="s">
         <v>897</v>
       </c>
@@ -20165,7 +19562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="281" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="53" t="s">
         <v>901</v>
       </c>
@@ -20221,7 +19618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" s="9" customFormat="1" spans="1:22">
+    <row r="282" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="53" t="s">
         <v>904</v>
       </c>
@@ -20277,7 +19674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="283" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="53" t="s">
         <v>907</v>
       </c>
@@ -20333,7 +19730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" s="9" customFormat="1" spans="1:22">
+    <row r="284" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="53" t="s">
         <v>910</v>
       </c>
@@ -20389,7 +19786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="285" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="53" t="s">
         <v>913</v>
       </c>
@@ -20445,7 +19842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" s="9" customFormat="1" spans="1:22">
+    <row r="286" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="53" t="s">
         <v>916</v>
       </c>
@@ -20501,7 +19898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="287" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="53" t="s">
         <v>919</v>
       </c>
@@ -20557,7 +19954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" s="9" customFormat="1" spans="1:22">
+    <row r="288" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="53" t="s">
         <v>922</v>
       </c>
@@ -20613,7 +20010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="289" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="53" t="s">
         <v>925</v>
       </c>
@@ -20669,7 +20066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" spans="1:22">
+    <row r="290" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="53" t="s">
         <v>928</v>
       </c>
@@ -20725,7 +20122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="291" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="53" t="s">
         <v>931</v>
       </c>
@@ -20781,7 +20178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" s="9" customFormat="1" spans="1:22">
+    <row r="292" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="53" t="s">
         <v>933</v>
       </c>
@@ -20837,7 +20234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="293" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="53" t="s">
         <v>936</v>
       </c>
@@ -20893,7 +20290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" s="9" customFormat="1" spans="1:22">
+    <row r="294" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="53" t="s">
         <v>939</v>
       </c>
@@ -20949,7 +20346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="295" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
         <v>942</v>
       </c>
@@ -21005,7 +20402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" s="9" customFormat="1" spans="1:22">
+    <row r="296" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="53" t="s">
         <v>945</v>
       </c>
@@ -21061,7 +20458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="297" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="53" t="s">
         <v>948</v>
       </c>
@@ -21117,7 +20514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" s="9" customFormat="1" spans="1:22">
+    <row r="298" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="53" t="s">
         <v>951</v>
       </c>
@@ -21173,7 +20570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="299" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="53" t="s">
         <v>954</v>
       </c>
@@ -21229,7 +20626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" s="9" customFormat="1" spans="1:22">
+    <row r="300" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="53" t="s">
         <v>957</v>
       </c>
@@ -21285,7 +20682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="301" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="53" t="s">
         <v>960</v>
       </c>
@@ -21341,7 +20738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" s="9" customFormat="1" spans="1:22">
+    <row r="302" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="53" t="s">
         <v>963</v>
       </c>
@@ -21397,7 +20794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="303" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="53" t="s">
         <v>966</v>
       </c>
@@ -21453,7 +20850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" s="9" customFormat="1" spans="1:22">
+    <row r="304" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="53" t="s">
         <v>969</v>
       </c>
@@ -21509,7 +20906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" s="9" customFormat="1" ht="14.25" spans="1:22">
+    <row r="305" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="53" t="s">
         <v>972</v>
       </c>
@@ -21565,7 +20962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" s="9" customFormat="1" spans="1:22">
+    <row r="306" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="56" t="s">
         <v>975</v>
       </c>
@@ -21621,7 +21018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" s="9" customFormat="1" spans="1:22">
+    <row r="307" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="42" t="s">
         <v>978</v>
       </c>
@@ -21677,7 +21074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" s="12" customFormat="1" spans="1:22">
+    <row r="308" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="60" t="s">
         <v>981</v>
       </c>
@@ -21733,7 +21130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" s="12" customFormat="1" spans="1:22">
+    <row r="309" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="60" t="s">
         <v>984</v>
       </c>
@@ -21790,8 +21187,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -3819,10 +3819,10 @@
   <dimension ref="A1:U316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S39" sqref="S39"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Item.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="1380" windowWidth="27780" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -2921,9 +2921,6 @@
     <t>Item_Avoid_Def_Water_6</t>
   </si>
   <si>
-    <t>NameID_Damange_MP_Water_1</t>
-  </si>
-  <si>
     <t>Item_Damange_MP_Water_1</t>
   </si>
   <si>
@@ -2942,39 +2939,6 @@
     <t>Item_Damange_MP_Water_6</t>
   </si>
   <si>
-    <t>Desc_Damange_MP_Water_1</t>
-  </si>
-  <si>
-    <t>Desc_Damange_MP_Water_2</t>
-  </si>
-  <si>
-    <t>Desc_Damange_MP_Water_3</t>
-  </si>
-  <si>
-    <t>Desc_Damange_MP_Water_4</t>
-  </si>
-  <si>
-    <t>Desc_Damange_MP_Water_5</t>
-  </si>
-  <si>
-    <t>Desc_Damange_MP_Water_6</t>
-  </si>
-  <si>
-    <t>NameID_Damange_MP_Water_2</t>
-  </si>
-  <si>
-    <t>NameID_Damange_MP_Water_3</t>
-  </si>
-  <si>
-    <t>NameID_Damange_MP_Water_4</t>
-  </si>
-  <si>
-    <t>NameID_Damange_MP_Water_5</t>
-  </si>
-  <si>
-    <t>NameID_Damange_MP_Water_6</t>
-  </si>
-  <si>
     <t>1_Gold</t>
   </si>
   <si>
@@ -3066,6 +3030,42 @@
   </si>
   <si>
     <t>1_Green</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_1</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_2</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_3</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_4</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_5</t>
+  </si>
+  <si>
+    <t>Desc_Damage_MP_Water_6</t>
+  </si>
+  <si>
+    <t>NameID_Damage_MP_Water_1</t>
+  </si>
+  <si>
+    <t>NameID_Damage_MP_Water_2</t>
+  </si>
+  <si>
+    <t>NameID_Damage_MP_Water_3</t>
+  </si>
+  <si>
+    <t>NameID_Damage_MP_Water_4</t>
+  </si>
+  <si>
+    <t>NameID_Damage_MP_Water_5</t>
+  </si>
+  <si>
+    <t>NameID_Damage_MP_Water_6</t>
   </si>
 </sst>
 </file>
@@ -3819,10 +3819,10 @@
   <dimension ref="A1:U316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="Q22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="T40" sqref="T40:T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4478,7 +4478,7 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="17" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="T10" s="17" t="s">
         <v>53</v>
@@ -4531,7 +4531,7 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="17" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>56</v>
@@ -4584,7 +4584,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="18"/>
       <c r="S12" s="17" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="T12" s="17" t="s">
         <v>59</v>
@@ -4637,7 +4637,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="17" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>62</v>
@@ -4690,7 +4690,7 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="17" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="T14" s="17" t="s">
         <v>908</v>
@@ -4743,7 +4743,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="17" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>909</v>
@@ -4796,7 +4796,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="T16" s="20" t="s">
         <v>65</v>
@@ -4849,7 +4849,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="20" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="T17" s="20" t="s">
         <v>68</v>
@@ -4902,7 +4902,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="T18" s="20" t="s">
         <v>71</v>
@@ -4955,7 +4955,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="20" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="T19" s="20" t="s">
         <v>74</v>
@@ -5008,7 +5008,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="20" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="T20" s="20" t="s">
         <v>916</v>
@@ -5061,7 +5061,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="20" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="T21" s="20" t="s">
         <v>917</v>
@@ -5114,7 +5114,7 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="T22" s="20" t="s">
         <v>77</v>
@@ -5167,7 +5167,7 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="20" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="T23" s="20" t="s">
         <v>80</v>
@@ -5220,7 +5220,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="18"/>
       <c r="S24" s="20" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="T24" s="20" t="s">
         <v>83</v>
@@ -5273,7 +5273,7 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="20" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="T25" s="20" t="s">
         <v>86</v>
@@ -5326,7 +5326,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="20" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="T26" s="20" t="s">
         <v>922</v>
@@ -5379,7 +5379,7 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="20" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="T27" s="20" t="s">
         <v>923</v>
@@ -5432,7 +5432,7 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="18"/>
       <c r="S28" s="20" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="T28" s="20" t="s">
         <v>936</v>
@@ -5485,7 +5485,7 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="20" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="T29" s="20" t="s">
         <v>937</v>
@@ -5538,7 +5538,7 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="18"/>
       <c r="S30" s="20" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="T30" s="20" t="s">
         <v>938</v>
@@ -5591,7 +5591,7 @@
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="20" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="T31" s="20" t="s">
         <v>939</v>
@@ -5644,7 +5644,7 @@
       <c r="Q32" s="19"/>
       <c r="R32" s="18"/>
       <c r="S32" s="20" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="T32" s="20" t="s">
         <v>940</v>
@@ -5697,7 +5697,7 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="20" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>941</v>
@@ -5750,7 +5750,7 @@
       <c r="Q34" s="19"/>
       <c r="R34" s="18"/>
       <c r="S34" s="19" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="T34" s="19" t="s">
         <v>942</v>
@@ -5803,7 +5803,7 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>944</v>
@@ -5856,7 +5856,7 @@
       <c r="Q36" s="19"/>
       <c r="R36" s="18"/>
       <c r="S36" s="19" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="T36" s="19" t="s">
         <v>945</v>
@@ -5909,7 +5909,7 @@
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="T37" s="19" t="s">
         <v>946</v>
@@ -5962,7 +5962,7 @@
       <c r="Q38" s="19"/>
       <c r="R38" s="18"/>
       <c r="S38" s="19" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="T38" s="19" t="s">
         <v>947</v>
@@ -6015,7 +6015,7 @@
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="T39" s="19" t="s">
         <v>948</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="40" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B40" s="19">
         <v>2</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>967</v>
+        <v>997</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -6068,10 +6068,10 @@
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="20" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="T40" s="20" t="s">
-        <v>960</v>
+        <v>1003</v>
       </c>
       <c r="U40" s="19">
         <v>0</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="41" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B41" s="18">
         <v>2</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>968</v>
+        <v>998</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -6121,10 +6121,10 @@
       <c r="Q41" s="19"/>
       <c r="R41" s="18"/>
       <c r="S41" s="20" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="T41" s="20" t="s">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="U41" s="19">
         <v>0</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="42" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B42" s="19">
         <v>2</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -6174,10 +6174,10 @@
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="20" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="T42" s="20" t="s">
-        <v>974</v>
+        <v>1005</v>
       </c>
       <c r="U42" s="19">
         <v>0</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="43" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B43" s="18">
         <v>2</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -6227,10 +6227,10 @@
       <c r="Q43" s="19"/>
       <c r="R43" s="18"/>
       <c r="S43" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="T43" s="20" t="s">
         <v>1006</v>
-      </c>
-      <c r="T43" s="20" t="s">
-        <v>975</v>
       </c>
       <c r="U43" s="19">
         <v>0</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="44" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B44" s="19">
         <v>2</v>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>971</v>
+        <v>1001</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -6280,10 +6280,10 @@
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="20" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="T44" s="20" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="U44" s="19">
         <v>0</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="45" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B45" s="18">
         <v>2</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>972</v>
+        <v>1002</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -6333,10 +6333,10 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="18"/>
       <c r="S45" s="20" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="T45" s="20" t="s">
-        <v>977</v>
+        <v>1008</v>
       </c>
       <c r="U45" s="19">
         <v>0</v>
